--- a/hsn_student.xlsx
+++ b/hsn_student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11840"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="五年级学生成绩" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="190">
   <si>
     <t>学生姓名</t>
   </si>
@@ -536,12 +536,6 @@
   </si>
   <si>
     <t>李富阳</t>
-  </si>
-  <si>
-    <t>赵子豪</t>
-  </si>
-  <si>
-    <t>高启悦</t>
   </si>
   <si>
     <t>高旭廷</t>
@@ -597,60 +591,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -658,23 +660,45 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -682,21 +706,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -704,14 +721,15 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -719,39 +737,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -764,7 +758,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +842,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,25 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,133 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,24 +949,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -991,6 +967,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1002,6 +987,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,8 +1029,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,164 +1049,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,55 +1205,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1528,13 +1522,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.3828125" defaultRowHeight="14" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4335,10 +4329,10 @@
         <v>153</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E165">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4346,16 +4340,16 @@
         <v>175</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
         <v>153</v>
       </c>
       <c r="D166">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E166">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4369,10 +4363,10 @@
         <v>153</v>
       </c>
       <c r="D167">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E167">
-        <v>86</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4386,10 +4380,10 @@
         <v>153</v>
       </c>
       <c r="D168">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E168">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4397,16 +4391,16 @@
         <v>178</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>153</v>
       </c>
       <c r="D169">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E169">
-        <v>76.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4420,7 +4414,7 @@
         <v>153</v>
       </c>
       <c r="D170">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E170">
         <v>82</v>
@@ -4437,10 +4431,10 @@
         <v>153</v>
       </c>
       <c r="D171">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E171">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4448,16 +4442,16 @@
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>153</v>
       </c>
       <c r="D172">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E172">
-        <v>82</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4465,16 +4459,16 @@
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
         <v>153</v>
       </c>
       <c r="D173">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E173">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4482,16 +4476,16 @@
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>153</v>
       </c>
       <c r="D174">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E174">
-        <v>99.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4505,10 +4499,10 @@
         <v>153</v>
       </c>
       <c r="D175">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E175">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4522,10 +4516,10 @@
         <v>153</v>
       </c>
       <c r="D176">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E176">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4533,16 +4527,16 @@
         <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>153</v>
       </c>
       <c r="D177">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E177">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4556,10 +4550,10 @@
         <v>153</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E178">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4573,10 +4567,10 @@
         <v>153</v>
       </c>
       <c r="D179">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E179">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4584,49 +4578,15 @@
         <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>153</v>
       </c>
       <c r="D180">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E180">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>190</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" t="s">
-        <v>153</v>
-      </c>
-      <c r="D181">
-        <v>100</v>
-      </c>
-      <c r="E181">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>191</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" t="s">
-        <v>153</v>
-      </c>
-      <c r="D182">
-        <v>98</v>
-      </c>
-      <c r="E182">
         <v>98</v>
       </c>
     </row>

--- a/hsn_student.xlsx
+++ b/hsn_student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
   <si>
     <t>学生姓名</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>曲珈澳</t>
+  </si>
+  <si>
+    <t>赵子豪</t>
+  </si>
+  <si>
+    <t>高启悦</t>
   </si>
 </sst>
 </file>
@@ -591,15 +597,106 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,44 +711,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,70 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,10 +747,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -758,19 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +794,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,121 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,13 +860,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,17 +958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,21 +978,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,17 +1002,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,153 +1060,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3828125" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4590,6 +4599,40 @@
         <v>98</v>
       </c>
     </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D181" s="1">
+        <v>100</v>
+      </c>
+      <c r="E181" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D182" s="1">
+        <v>100</v>
+      </c>
+      <c r="E182" s="1">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/hsn_student.xlsx
+++ b/hsn_student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView windowHeight="15180"/>
   </bookViews>
   <sheets>
     <sheet name="五年级学生成绩" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -611,31 +611,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,38 +695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,21 +712,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,6 +734,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -741,17 +749,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -764,7 +764,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,79 +884,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,91 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,37 +958,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +997,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1034,6 +1023,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1041,16 +1041,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1060,148 +1060,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3828125" defaultRowHeight="14" outlineLevelCol="4"/>
